--- a/VR Karting/Results/6080.xlsx
+++ b/VR Karting/Results/6080.xlsx
@@ -3,24 +3,28 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7080" yWindow="1460" windowWidth="14000" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7080" yWindow="1460" windowWidth="22660" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Session 1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Mini 1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Word Accuracies" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Contrast Accuracies" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Session 2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Mini 2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Session 3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Mini 3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Word Accuracies" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Contrast Accuracies" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <name val="맑은 고딕"/>
       <charset val="129"/>
@@ -37,6 +41,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -48,12 +66,42 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -68,11 +116,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4108,7 +4162,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -4205,7 +4259,3155 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>3.171181</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2.441044</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1.722107</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.463837</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3.052063</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1.380035</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2.092506</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1.024422</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1.697586</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>3.252388</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1.757874</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2.857483</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1.722717</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.7164459</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1.31601</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>4.065002</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>2.643799</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.985062</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1.187225</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1.683853</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2.040726</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1.485992</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>2.878708</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1.614288</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1.488754</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1.513504</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1.455765</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1.81131</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.8425293</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1.866211</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>2.364868</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1.81723</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1.507965</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>2.422424</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>2.494812</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1.070801</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>3.284729</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1.301971</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1.619354</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1.526062</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>2.240692</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>2.492981</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>2.495026</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>2.09903</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1.400543</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1.115265</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.7903748</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.9491271999999999</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.7861633</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>2.717468</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1.043884</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>2.398224</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1.549225</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1.394806</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1.256012</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.9254456</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1.254385</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>2.670101</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>2.51873</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.6766739000000001</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.7730026</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1.53487</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1.647881</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.9027404999999999</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1.903572</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0.8592682</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.7650528</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1.063148</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1.163101</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>3.414131</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.8101425</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.877243</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>2.156174</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>1.010864</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>1.547592</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>0.7431488000000001</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1.642944</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>0.8512421</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1.911346</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1.764328</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>1.122299</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>1.19812</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>2.15741</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>0.8156738</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>1.466827</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>1.797958</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1.287552</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>0.4931335</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>1.269913</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1.28656</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>1.147583</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1.233826</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1.726685</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.622437</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.6147766</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>2.213684</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.5582581</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.7284851</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>0.8729553</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>1.168243</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.9176636</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>0.7247314</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>3.648041</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.449646</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>2.549133</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>2.005615</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>1.161224</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>2.387207</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>2.067078</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1.579071</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>0.8337708</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0.6436768</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>0.9002151</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.295883</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2.479607</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.276215</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1.013519</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.8808975</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.8483810000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1.60054</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2.436142</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1.885605</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1.393509</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1.054977</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2.081757</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2.376297</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1.260223</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2.850616</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1.866623</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.939011</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1.918274</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1.795334</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2.228394</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2.429123</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.441589</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2.652283</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1.346985</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1.461884</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>2.046555</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1.133545</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1.789764</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.8899231</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1.216156</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1.167511</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1.358765</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>2.086975</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.5379944</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>2.92691</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1.385193</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>2.573853</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1.573212</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>2.794464</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1.316345</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1.010284</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.9637451</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>2.020782</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1.104034</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>2.066284</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.8942871</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1.276398</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1.71521</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1.092377</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1.806335</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>2.330261</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1.619873</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>2.397858</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1.28833</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1.639954</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>2.528364</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1.730865</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1.409428</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>2.323112</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>2.74617</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>2.193062</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>2.185699</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.6988143999999999</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.893364</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>2.009613</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>1.901947</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1.81057</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1.447441</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>1.975647</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>2.415733</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>1.287109</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>1.696365</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>1.37178</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0.9389343</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>2.338593</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1.532211</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>2.351776</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1.807098</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1.293945</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>1.634506</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>1.713943</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1.744797</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>2.930878</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>1.114243</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>2.651108</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1.218033</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>2.652527</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>2.487045</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1.796783</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>1.251831</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1.205353</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1.664154</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.174011</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>1.174591</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>1.040802</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>2.274384</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>2.835144</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>2.983856</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>1.790253</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>2.188812</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>3.229004</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>1.031525</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.636932</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.6805725</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>1.648254</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>1.240173</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>1.828796</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>2.233002</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>0.8006287</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>1.810333</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0.7723999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4214,574 +7416,920 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>WORD</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Session 1</t>
         </is>
       </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>bat</t>
         </is>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" t="n">
         <v>0.5</v>
       </c>
+      <c r="C2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>bet</t>
         </is>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Boole</t>
         </is>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" t="n">
         <v>0.5</v>
       </c>
+      <c r="C4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>bot</t>
         </is>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>bull</t>
         </is>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>but</t>
         </is>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>can</t>
         </is>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" t="n">
         <v>0.5</v>
       </c>
+      <c r="C8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>cheap</t>
         </is>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0</v>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>chip</t>
         </is>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>1</v>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>cooed</t>
         </is>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" t="n">
         <v>0.5</v>
       </c>
+      <c r="C11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>cot</t>
         </is>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>could</t>
         </is>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>cut</t>
         </is>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>each</t>
         </is>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>field</t>
         </is>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>filled</t>
         </is>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" t="n">
         <v>0.5</v>
       </c>
+      <c r="C17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="0" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>fond</t>
         </is>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" t="n">
         <v>0.5</v>
       </c>
+      <c r="C18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>fool</t>
         </is>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0</v>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="0" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>fund</t>
         </is>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" t="n">
         <v>0.5</v>
       </c>
+      <c r="C21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>1</v>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="0" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>grin</t>
         </is>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>1</v>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="0" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>hot</t>
         </is>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>1</v>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>hut</t>
         </is>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>1</v>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="0" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>itch</t>
         </is>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="0" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t>Ken</t>
         </is>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" t="n">
         <v>0.5</v>
       </c>
+      <c r="C27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="0" t="inlineStr">
+      <c r="A28" t="inlineStr">
         <is>
           <t>least</t>
         </is>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" t="n">
         <v>0.5</v>
       </c>
+      <c r="C28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="0" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>list</t>
         </is>
       </c>
-      <c r="B29" s="0" t="n">
-        <v>1</v>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t>look</t>
         </is>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="0" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>Luke</t>
         </is>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>man</t>
         </is>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" t="n">
         <v>0.5</v>
       </c>
+      <c r="C32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="0" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t>mat</t>
         </is>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" t="n">
         <v>0.5</v>
       </c>
+      <c r="C33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t>men</t>
         </is>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" t="n">
         <v>0.5</v>
       </c>
+      <c r="C34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="0" t="inlineStr">
+      <c r="A35" t="inlineStr">
         <is>
           <t>met</t>
         </is>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" t="n">
         <v>0.5</v>
       </c>
+      <c r="C35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="0" t="inlineStr">
+      <c r="A36" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" t="n">
         <v>0.5</v>
       </c>
+      <c r="C36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="0" t="inlineStr">
+      <c r="A37" t="inlineStr">
         <is>
           <t>nut</t>
         </is>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0" t="inlineStr">
+      <c r="A38" t="inlineStr">
         <is>
           <t>pat</t>
         </is>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="0" t="inlineStr">
+      <c r="A39" t="inlineStr">
         <is>
           <t>pet</t>
         </is>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" t="n">
         <v>0.5</v>
       </c>
+      <c r="C39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="0" t="inlineStr">
+      <c r="A40" t="inlineStr">
         <is>
           <t>pool</t>
         </is>
       </c>
-      <c r="B40" s="0" t="n">
-        <v>0</v>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="0" t="inlineStr">
+      <c r="A41" t="inlineStr">
         <is>
           <t>pop</t>
         </is>
       </c>
-      <c r="B41" s="0" t="n">
-        <v>1</v>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="0" t="inlineStr">
+      <c r="A42" t="inlineStr">
         <is>
           <t>pull</t>
         </is>
       </c>
-      <c r="B42" s="0" t="n">
-        <v>1</v>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0" t="inlineStr">
+      <c r="A43" t="inlineStr">
         <is>
           <t>pup</t>
         </is>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" t="n">
         <v>0.5</v>
       </c>
+      <c r="C43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="0" t="inlineStr">
+      <c r="A44" t="inlineStr">
         <is>
           <t>reach</t>
         </is>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0" t="inlineStr">
+      <c r="A45" t="inlineStr">
         <is>
           <t>rich</t>
         </is>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" t="n">
         <v>0.5</v>
       </c>
+      <c r="C45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="0" t="inlineStr">
+      <c r="A46" t="inlineStr">
         <is>
           <t>sat</t>
         </is>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" t="n">
         <v>0.5</v>
       </c>
+      <c r="C46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="0" t="inlineStr">
+      <c r="A47" t="inlineStr">
         <is>
           <t>scene</t>
         </is>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="0" t="inlineStr">
+      <c r="A48" t="inlineStr">
         <is>
           <t>set</t>
         </is>
       </c>
-      <c r="B48" s="0" t="n">
-        <v>1</v>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="0" t="inlineStr">
+      <c r="A49" t="inlineStr">
         <is>
           <t>shooed</t>
         </is>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="0" t="inlineStr">
+      <c r="A50" t="inlineStr">
         <is>
           <t>should</t>
         </is>
       </c>
-      <c r="B50" s="0" t="n">
-        <v>1</v>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0" t="inlineStr">
+      <c r="A51" t="inlineStr">
         <is>
           <t>sin</t>
         </is>
       </c>
-      <c r="B51" s="0" t="n">
-        <v>1</v>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="0" t="inlineStr">
+      <c r="A52" t="inlineStr">
         <is>
           <t>sob</t>
         </is>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52" t="n">
         <v>0.5</v>
       </c>
+      <c r="C52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="0" t="inlineStr">
+      <c r="A53" t="inlineStr">
         <is>
           <t>sub</t>
         </is>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="0" t="inlineStr">
+      <c r="A54" t="inlineStr">
         <is>
           <t>tan</t>
         </is>
       </c>
-      <c r="B54" s="0" t="n">
-        <v>0</v>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="0" t="inlineStr">
+      <c r="A55" t="inlineStr">
         <is>
           <t>ten</t>
         </is>
       </c>
-      <c r="B55" s="0" t="n">
-        <v>1</v>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0" t="inlineStr">
+      <c r="A56" t="inlineStr">
         <is>
           <t>wooed</t>
         </is>
       </c>
-      <c r="B56" s="0" t="n">
-        <v>1</v>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="0" t="inlineStr">
+      <c r="A57" t="inlineStr">
         <is>
           <t>would</t>
         </is>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4790,7 +8338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4802,7 +8350,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -4817,42 +8365,42 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>ɛ vs. æ</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="0" t="n">
         <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>ɪ vs. iː</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="0" t="n">
         <v>0.8214285714285714</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>ʊ vs. uː</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="0" t="n">
         <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>ʌ vs. ɑ</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="0" t="n">
         <v>0.8214285714285714</v>
       </c>
     </row>

--- a/VR Karting/Results/6080.xlsx
+++ b/VR Karting/Results/6080.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7080" yWindow="1460" windowWidth="22660" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2020" yWindow="2640" windowWidth="22660" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="9" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,8 +13,12 @@
     <sheet name="Mini 2" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Session 3" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Mini 3" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Word Accuracies" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Contrast Accuracies" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Session 4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Mini 4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="MID" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Word Accuracies" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Contrast Accuracies" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Evaluation Word Accuracies" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -506,10 +510,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -528,6 +532,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -543,6 +552,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
@@ -558,6 +572,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
@@ -573,6 +592,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
@@ -588,6 +612,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
@@ -603,6 +632,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
@@ -618,6 +652,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
@@ -633,6 +672,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
@@ -648,6 +692,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -663,6 +712,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
@@ -678,6 +732,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
@@ -693,6 +752,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
@@ -708,6 +772,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
@@ -723,6 +792,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
@@ -738,6 +812,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
@@ -753,6 +832,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
@@ -768,6 +852,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
@@ -783,6 +872,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
@@ -798,6 +892,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
@@ -813,6 +912,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
@@ -828,6 +932,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
@@ -843,6 +952,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
@@ -858,6 +972,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
@@ -873,6 +992,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
@@ -888,6 +1012,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
@@ -903,6 +1032,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
@@ -918,6 +1052,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
@@ -933,6 +1072,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
@@ -948,6 +1092,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
@@ -963,6 +1112,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
@@ -978,6 +1132,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
@@ -993,6 +1152,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
@@ -1008,6 +1172,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
@@ -1023,6 +1192,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
@@ -1038,6 +1212,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
@@ -1053,6 +1232,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
@@ -1068,6 +1252,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
@@ -1083,6 +1272,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
@@ -1098,6 +1292,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
@@ -1113,6 +1312,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
@@ -1128,6 +1332,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
@@ -1143,6 +1352,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
@@ -1158,6 +1372,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
@@ -1173,6 +1392,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
@@ -1188,6 +1412,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
@@ -1203,6 +1432,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
@@ -1218,6 +1452,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
@@ -1233,6 +1472,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
@@ -1248,6 +1492,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
@@ -1263,6 +1512,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
@@ -1278,6 +1532,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
@@ -1293,6 +1552,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
@@ -1308,6 +1572,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
@@ -1323,6 +1592,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
@@ -1338,6 +1612,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
@@ -1353,6 +1632,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
@@ -1368,6 +1652,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="inlineStr">
@@ -1383,6 +1672,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="inlineStr">
@@ -1398,6 +1692,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="inlineStr">
@@ -1413,6 +1712,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="inlineStr">
@@ -1428,6 +1732,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="inlineStr">
@@ -1443,6 +1752,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="inlineStr">
@@ -1458,6 +1772,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="inlineStr">
@@ -1473,6 +1792,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="inlineStr">
@@ -1488,6 +1812,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="inlineStr">
@@ -1503,6 +1832,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="inlineStr">
@@ -1518,6 +1852,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="inlineStr">
@@ -1533,6 +1872,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D68" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="inlineStr">
@@ -1548,6 +1892,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D69" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="inlineStr">
@@ -1563,6 +1912,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="inlineStr">
@@ -1578,6 +1932,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D71" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="inlineStr">
@@ -1593,6 +1952,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="inlineStr">
@@ -1608,6 +1972,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="inlineStr">
@@ -1623,6 +1992,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="inlineStr">
@@ -1638,6 +2012,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="inlineStr">
@@ -1653,6 +2032,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="inlineStr">
@@ -1668,6 +2052,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="inlineStr">
@@ -1683,6 +2072,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="inlineStr">
@@ -1698,6 +2092,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="inlineStr">
@@ -1713,6 +2112,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="inlineStr">
@@ -1728,6 +2132,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D81" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="inlineStr">
@@ -1743,6 +2152,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D82" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="inlineStr">
@@ -1758,6 +2172,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D83" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="inlineStr">
@@ -1773,6 +2192,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D84" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="inlineStr">
@@ -1788,6 +2212,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D85" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="inlineStr">
@@ -1803,6 +2232,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D86" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="inlineStr">
@@ -1818,6 +2252,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D87" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="inlineStr">
@@ -1833,6 +2272,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D88" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="inlineStr">
@@ -1848,6 +2292,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D89" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="inlineStr">
@@ -1863,6 +2312,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D90" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="inlineStr">
@@ -1878,6 +2332,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="inlineStr">
@@ -1893,6 +2352,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D92" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="inlineStr">
@@ -1908,6 +2372,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D93" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="inlineStr">
@@ -1923,6 +2392,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D94" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="inlineStr">
@@ -1938,6 +2412,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D95" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="inlineStr">
@@ -1953,6 +2432,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D96" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="inlineStr">
@@ -1968,6 +2452,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D97" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="inlineStr">
@@ -1983,6 +2472,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D98" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="inlineStr">
@@ -1998,6 +2492,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D99" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="inlineStr">
@@ -2013,6 +2512,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D100" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="inlineStr">
@@ -2028,6 +2532,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D101" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="inlineStr">
@@ -2043,6 +2552,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D102" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="inlineStr">
@@ -2058,6 +2572,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D103" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="inlineStr">
@@ -2073,6 +2592,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D104" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="inlineStr">
@@ -2088,6 +2612,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D105" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="inlineStr">
@@ -2103,6 +2632,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D106" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="inlineStr">
@@ -2118,6 +2652,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D107" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="inlineStr">
@@ -2133,6 +2672,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D108" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="inlineStr">
@@ -2148,6 +2692,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D109" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="inlineStr">
@@ -2163,6 +2712,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D110" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="inlineStr">
@@ -2178,6 +2732,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D111" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="inlineStr">
@@ -2193,6 +2752,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D112" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="inlineStr">
@@ -2208,6 +2772,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D113" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="inlineStr">
@@ -2223,6 +2792,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D114" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="inlineStr">
@@ -2238,6 +2812,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D115" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="inlineStr">
@@ -2253,6 +2832,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D116" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="inlineStr">
@@ -2268,6 +2852,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D117" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="inlineStr">
@@ -2283,6 +2872,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D118" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="inlineStr">
@@ -2298,6 +2892,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D119" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="inlineStr">
@@ -2313,6 +2912,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D120" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="inlineStr">
@@ -2328,6 +2932,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D121" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="inlineStr">
@@ -2343,6 +2952,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D122" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="inlineStr">
@@ -2358,6 +2972,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D123" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="inlineStr">
@@ -2373,6 +2992,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D124" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="inlineStr">
@@ -2388,6 +3012,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D125" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="inlineStr">
@@ -2403,6 +3032,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D126" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="inlineStr">
@@ -2418,6 +3052,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D127" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="inlineStr">
@@ -2433,6 +3072,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D128" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="inlineStr">
@@ -2448,6 +3092,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D129" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="inlineStr">
@@ -2463,6 +3112,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D130" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="inlineStr">
@@ -2478,6 +3132,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D131" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="inlineStr">
@@ -2493,6 +3152,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D132" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="inlineStr">
@@ -2508,6 +3172,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D133" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="inlineStr">
@@ -2523,6 +3192,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D134" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="inlineStr">
@@ -2538,6 +3212,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D135" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="inlineStr">
@@ -2553,6 +3232,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D136" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="inlineStr">
@@ -2568,6 +3252,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D137" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="inlineStr">
@@ -2583,6 +3272,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D138" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="inlineStr">
@@ -2598,6 +3292,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D139" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="inlineStr">
@@ -2613,6 +3312,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D140" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="inlineStr">
@@ -2628,6 +3332,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D141" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="inlineStr">
@@ -2643,6 +3352,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D142" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="inlineStr">
@@ -2658,6 +3372,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D143" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="inlineStr">
@@ -2673,9 +3392,4337 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D144" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="F140" sqref="F140"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D68" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D69" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D71" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D81" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D82" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D83" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D84" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D85" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D86" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D87" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D88" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D89" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D90" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D92" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D93" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D94" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D95" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D96" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D97" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D98" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D99" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D100" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D101" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D102" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D103" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C104" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D104" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D105" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D106" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D107" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D108" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D109" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D110" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D111" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D112" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D113" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D114" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D115" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D116" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D117" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D118" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D119" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D120" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D121" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C122" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D122" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C123" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D123" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C124" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D124" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C125" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D125" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C126" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D126" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C127" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D127" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C128" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D128" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C129" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D129" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C130" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D130" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C131" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D131" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C132" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D132" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C133" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D133" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C134" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D134" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C135" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D135" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C136" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D136" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B137" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C137" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D137" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C138" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D138" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B139" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C139" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D139" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C140" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D140" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B141" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C141" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D141" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C142" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D142" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B143" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C143" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D143" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C144" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D144" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>WORD</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>CONTRAST</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ɛ vs. æ</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ɪ vs. iː</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ʊ vs. uː</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ʌ vs. ɑ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>WORD</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -7310,7 +12357,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
@@ -7407,934 +12454,1472 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>WORD</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Session 2</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Session 3</t>
-        </is>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1.392014</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2.513435</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1.235153</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.078758</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1.299126</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1.879417</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1.758827</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2.058052</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2.14756</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>3.1511</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>2.223297</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2.42395</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1.507996</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1.16716</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1.088074</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.8769379</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
         <is>
           <t>bat</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>2.099365</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.359497</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1.042862</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1.47316</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>3.208313</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.8551636</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.313629</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.9870605</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.8056946</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1.738922</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1.10289</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1.858505</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1.073486</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1.678253</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1.8172</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1.484375</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>2.041016</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>2.129181</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1.538727</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1.254944</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>3.527832</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1.381531</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
         <is>
           <t>bet</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>2.586853</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1.589874</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.9690857</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>2.795929</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1.290283</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1.925323</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>2.209747</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1.577026</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1.148376</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>2.969208</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1.615417</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1.490601</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1.629547</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.8330688000000001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1.287384</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1.325256</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0.6808777</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.8865356</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>2.369543</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1.175976</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1.309475</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1.824398</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1.840698</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>2.288208</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>2.401184</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>1.532082</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>2.241234</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1.879257</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>1.692032</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.9890518</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1.258865</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>1.876678</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>2.551735</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>2.021729</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>1.946625</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>2.987442</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>1.439423</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>2.618317</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1.063889</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1.607086</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1.436218</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1.160721</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>2.070419</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>2.45015</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1.163986</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>0.7793121</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>3.013779</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>1.358398</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>2.144745</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>1.872635</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>1.49408</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1.893738</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>1.500305</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1.355164</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>2.181641</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>2.899719</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>3.004242</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>1.969788</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>1.113953</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>1.014862</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>2.623596</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>1.030884</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>1.625824</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>1.743896</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
         <is>
           <t>Boole</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="B103" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>2.58551</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
         <is>
           <t>bot</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.428711</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>1.600159</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>1.165436</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>1.600311</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0.9210205</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>1.076172</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
         <is>
           <t>bull</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>but</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>cheap</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>chip</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>cooed</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>cot</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>could</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>cut</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1.330505</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
         <is>
           <t>field</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>1.444031</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
         <is>
           <t>filled</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>fond</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>fool</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>grin</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>hot</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>hut</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>itch</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Ken</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>least</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>look</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Luke</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>man</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>mat</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>met</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>nut</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>pat</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>pet</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>pool</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>pop</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>pull</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>pup</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>reach</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>rich</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>scene</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>shooed</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>should</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>sin</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>sob</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>sub</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>tan</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>ten</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>wooed</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>would</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1</v>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>1.914886</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8344,67 +13929,95 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRAST</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>ɛ vs. æ</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0.5357142857142857</v>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>ɪ vs. iː</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.8214285714285714</v>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>ʊ vs. uː</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.7857142857142857</v>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>ʌ vs. ɑ</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0.8214285714285714</v>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/VR Karting/Results/6080.xlsx
+++ b/VR Karting/Results/6080.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2020" yWindow="2640" windowWidth="22660" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="9" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="19120" yWindow="3640" windowWidth="15140" windowHeight="17440" tabRatio="600" firstSheet="7" activeTab="13" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,9 +16,13 @@
     <sheet name="Session 4" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Mini 4" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="MID" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Word Accuracies" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Contrast Accuracies" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Evaluation Word Accuracies" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Session 5" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Mini 5" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Session 6" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Mini 6" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Word Accuracies" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Contrast Accuracies" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Evaluation Word Accuracies" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -28,7 +32,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="맑은 고딕"/>
       <charset val="129"/>
@@ -52,13 +56,6 @@
       <sz val="12"/>
     </font>
     <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -70,27 +67,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -120,7 +102,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -128,9 +110,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3411,7 +3390,7 @@
   </sheetPr>
   <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+    <sheetView topLeftCell="A126" workbookViewId="0">
       <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
@@ -6308,134 +6287,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>WORD</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Session 2</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Session 3</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Session 4</t>
-        </is>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2.510731</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>bat</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0.5</v>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0.5</v>
+        <v>0.6298637</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>bet</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
+        <v>2.584755</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>Boole</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.5</v>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.5</v>
+        <v>1.573639</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>bot</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
+        <v>1.076912</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>bull</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
+        <v>2.278023</v>
       </c>
     </row>
     <row r="7">
@@ -6444,359 +6379,245 @@
           <t>but</t>
         </is>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
+        <v>2.750931</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0.5</v>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0.5</v>
+        <v>1.409348</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>cheap</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0</v>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
+        <v>1.290062</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>chip</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
+        <v>1.612923</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>cooed</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0.5</v>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>1</v>
+        <v>0.9055862</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>cot</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
+        <v>2.410835</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>could</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="n">
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
+        <v>1.657135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>cut</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="n">
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
+        <v>0.7110596</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
+        <v>2.843765</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>field</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="n">
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
+        <v>1.065475</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>filled</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0.5</v>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0.5</v>
+        <v>1.927002</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>fond</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0.5</v>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>0</v>
+        <v>1.429916</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>fool</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0</v>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>0.5</v>
+        <v>1.05069</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="n">
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
+        <v>1.641541</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>0.5</v>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>0.5</v>
+        <v>2.824478</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="n">
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>1</v>
+        <v>1.993134</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>grin</t>
-        </is>
-      </c>
-      <c r="B23" s="0" t="n">
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>0.5</v>
+        <v>1.621719</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>hot</t>
-        </is>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>1</v>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>1</v>
+        <v>3.06575</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>hut</t>
-        </is>
-      </c>
-      <c r="B25" s="0" t="n">
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>1</v>
+        <v>1.827744</v>
       </c>
     </row>
     <row r="26">
@@ -6805,610 +6626,1133 @@
           <t>itch</t>
         </is>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>1</v>
+        <v>1.031357</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>Ken</t>
-        </is>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>0.5</v>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>1</v>
+        <v>1.507263</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>least</t>
-        </is>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>0.5</v>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>1</v>
+        <v>2.604797</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="B29" s="0" t="n">
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>0</v>
+        <v>1.48761</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>look</t>
-        </is>
-      </c>
-      <c r="B30" s="0" t="n">
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>0.5</v>
+        <v>1.379395</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>Luke</t>
-        </is>
-      </c>
-      <c r="B31" s="0" t="n">
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>1</v>
+        <v>0.9133606</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>man</t>
-        </is>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0.5</v>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>0</v>
+        <v>0.6809082</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
         <is>
-          <t>mat</t>
-        </is>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>0.5</v>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>1</v>
+        <v>2.287262</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
         <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>0.5</v>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>0</v>
+        <v>1.538818</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>met</t>
-        </is>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>0.5</v>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>0</v>
+        <v>2.101501</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
         <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>0.5</v>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>1</v>
+        <v>2.17157</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
         <is>
-          <t>nut</t>
-        </is>
-      </c>
-      <c r="B37" s="0" t="n">
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>1</v>
+        <v>2.307617</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
         <is>
-          <t>pat</t>
-        </is>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>0</v>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>1</v>
+        <v>1.406708</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
         <is>
-          <t>pet</t>
-        </is>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>0.5</v>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>1</v>
+        <v>1.5159</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
         <is>
-          <t>pool</t>
-        </is>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>0</v>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>0.5</v>
+        <v>1.125702</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
         <is>
-          <t>pop</t>
-        </is>
-      </c>
-      <c r="B41" s="0" t="n">
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>1</v>
+        <v>1.898071</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
         <is>
-          <t>pull</t>
-        </is>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>1</v>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>0</v>
+        <v>2.835815</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
         <is>
-          <t>pup</t>
-        </is>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>0.5</v>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>1</v>
+        <v>2.488586</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
         <is>
-          <t>reach</t>
-        </is>
-      </c>
-      <c r="B44" s="0" t="n">
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>0.5</v>
+        <v>1.515045</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
         <is>
-          <t>rich</t>
-        </is>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>0.5</v>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>0.5</v>
+        <v>1.729858</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
         <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>0.5</v>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>0</v>
+        <v>2.476166</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
         <is>
-          <t>scene</t>
-        </is>
-      </c>
-      <c r="B47" s="0" t="n">
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>1</v>
+        <v>1.825714</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
         <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>1</v>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>0.5</v>
+        <v>1.48407</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
         <is>
-          <t>shooed</t>
-        </is>
-      </c>
-      <c r="B49" s="0" t="n">
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>0.5</v>
+        <v>0.9674682999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
         <is>
-          <t>should</t>
-        </is>
-      </c>
-      <c r="B50" s="0" t="n">
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>1</v>
+        <v>0.8375549</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
         <is>
-          <t>sin</t>
-        </is>
-      </c>
-      <c r="B51" s="0" t="n">
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>1</v>
+        <v>1.218567</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
         <is>
-          <t>sob</t>
-        </is>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>0.5</v>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>1</v>
+        <v>1.203827</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
         <is>
-          <t>sub</t>
-        </is>
-      </c>
-      <c r="B53" s="0" t="n">
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>0</v>
+        <v>0.7306213</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
         <is>
-          <t>tan</t>
-        </is>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>0</v>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" s="0" t="n">
-        <v>0</v>
+        <v>0.479187</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
         <is>
-          <t>ten</t>
-        </is>
-      </c>
-      <c r="B55" s="0" t="n">
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>0.5</v>
+        <v>1.630371</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
         <is>
-          <t>wooed</t>
-        </is>
-      </c>
-      <c r="B56" s="0" t="n">
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E56" s="0" t="n">
-        <v>1</v>
+        <v>0.6508789</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
         <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>2.245132</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1.766119</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1.125496</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1.453392</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1.058968</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1.439678</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0.8155899</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>1.486549</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.5978622</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1.544678</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>1.571663</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1.331223</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0.8004227</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>2.155891</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
           <t>would</t>
         </is>
       </c>
-      <c r="B57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <v>1</v>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1.200272</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.6066742000000001</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>2.093018</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>1.447495</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>1.102448</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1.242233</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1.077072</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1.105927</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>2.822632</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>2.294235</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>1.423889</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>0.9771118</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1.346375</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>1.18515</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>1.535416</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>1.603592</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>2.075928</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>2.369278</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>1.708969</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1.517303</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>1.420319</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1.593109</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1.059418</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.887573</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>2.09375</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>3.792877</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>1.710785</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.5212708</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>1.77832</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>1.018646</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>2.011261</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>1.562622</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>0.844574</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.518005</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>1.581299</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>1.449707</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>2.890442</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>1.99649</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>1.076599</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1.787689</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>2.469666</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>1.40033</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7418,7 +7762,1680 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2.126413</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.220966</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1.352459</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>2.182503</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1.038673</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2.104828</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1.088158</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2.849174</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2.676926</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1.288879</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1.764145</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1.987755</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1.254906</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1.023453</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>2.282227</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1.470337</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1.559784</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>2.49881</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>2.458588</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>2.432175</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.7628784</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1.254822</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.462479</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>3.558105</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1.920837</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1.098999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.8246613</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>2.388519</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.8003235</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.7805481</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1.640564</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1.976883</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1.424301</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>3.556458</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>2.299774</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1.152832</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1.361328</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1.043701</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>2.067169</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>2.846619</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1.354401</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.8451233</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1.165558</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>2.006042</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.9790955</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>2.031952</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1.200378</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1.497864</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>2.311005</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>2.576416</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1.170166</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>2.778137</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1.787109</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1.532196</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>2.261261</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1.607239</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>2.102234</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>2.05344</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>2.340477</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1.113277</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1.58783</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.66539</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0.64711</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>1.415215</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1.285553</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1.695694</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>1.733688</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1.773575</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1.495354</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>3.073669</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>2.392479</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.8468781</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>1.057861</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>3.308319</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>1.312164</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>2.232864</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1.514832</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1.957779</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>2.255997</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>3.564499</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>3.317322</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>2.662506</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>2.266357</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>1.293579</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>1.938522</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>1.274948</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1.297989</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>0.8983154</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>1.319855</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>2.947754</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>1.838806</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>3.140137</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1.836975</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>2.787445</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>1.849884</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>2.366425</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>1.976227</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>1.672363</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>2.637177</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>1.837433</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>1.893097</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>2.253235</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>2.524963</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.273132</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>1.338684</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>2.083557</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>3.130676</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>1.088501</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>1.705688</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>2.930634</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>1.516144</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>3.875977</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7427,106 +9444,1440 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>CONTRAST</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>WORD</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Session 1</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Session 2</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Session 3</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Session 4</t>
         </is>
       </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Session 6</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ɛ vs. æ</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ɪ vs. iː</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.7142857142857143</v>
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ʊ vs. uː</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.75</v>
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ʌ vs. ɑ</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.75</v>
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7534,7 +10885,163 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>CONTRAST</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Session 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ɛ vs. æ</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ɪ vs. iː</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6071428571428571</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ʊ vs. uː</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ʌ vs. ɑ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7549,17 +11056,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>WORD</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>PRE</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>MID</t>
         </is>

--- a/VR Karting/Results/6080.xlsx
+++ b/VR Karting/Results/6080.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="19120" yWindow="3640" windowWidth="15140" windowHeight="17440" tabRatio="600" firstSheet="7" activeTab="13" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11260" yWindow="2520" windowWidth="15140" windowHeight="17440" tabRatio="600" firstSheet="9" activeTab="15" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,9 +20,11 @@
     <sheet name="Mini 5" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="Session 6" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="Mini 6" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Word Accuracies" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Contrast Accuracies" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Evaluation Word Accuracies" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Session 7" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Mini 7" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Word Accuracies" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Contrast Accuracies" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Evaluation Word Accuracies" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -9338,7 +9340,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -9435,7 +9437,1581 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1.570992</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2.80991</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2.69923</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.398678</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1.635246</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>3.541355</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1.221535</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1.260902</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1.199951</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1.058128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1.340439</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>3.288094</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.4812088</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2.175827</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1.357864</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2.460388</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.8634796</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.8673859</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1.656281</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>2.041855</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2.48468</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2.672409</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.579132</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.7322235</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1.333496</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>2.626083</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1.152573</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>2.005157</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>2.136932</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.9985657</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.872467</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>2.371292</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>2.199158</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>2.112579</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1.691589</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1.992767</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>2.268066</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.7797852</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1.453918</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.4241943</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1.850952</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1.408356</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1.177765</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>3.064941</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>2.538055</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1.09729</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>3.200623</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>2.902435</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1.926819</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1.297791</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1.434906</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.8376465</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1.310944</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1.397064</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1.170776</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1.081177</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0.8079491</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1.775555</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1.032272</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.440712</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1.172058</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>2.945435</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1.191437</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>2.26712</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.9892807</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1.262123</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>1.389153</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1.158287</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1.045448</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>2.085838</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1.093475</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>3.19252</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>1.43808</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.5132446000000001</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>2.407654</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1.63118</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1.429947</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1.748093</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>0.9692229999999999</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1.462845</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>0.4113007</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>1.481506</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1.787537</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>1.351959</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>1.441559</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>0.6334991</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1.615555</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>3.205734</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>1.079651</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1.4039</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>1.165375</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>0.9108582</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1.820282</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>4.166046</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>2.798004</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>2.970856</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>1.94162</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>2.533264</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>3.401703</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>1.301575</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>2.007111</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>2.644531</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>1.528717</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.719055</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>1.192627</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.3588867</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>1.394958</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>2.583405</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>1.080475</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1.007813</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>1.421539</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>1.653137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9479,6 +11055,11 @@
           <t>Session 6</t>
         </is>
       </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Session 7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -9504,6 +11085,9 @@
       <c r="G2" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H2" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
@@ -9529,6 +11113,9 @@
       <c r="G3" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
@@ -9554,6 +11141,9 @@
       <c r="G4" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
@@ -9579,6 +11169,9 @@
       <c r="G5" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
@@ -9604,6 +11197,9 @@
       <c r="G6" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H6" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
@@ -9629,6 +11225,9 @@
       <c r="G7" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
@@ -9654,6 +11253,9 @@
       <c r="G8" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H8" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
@@ -9679,6 +11281,9 @@
       <c r="G9" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -9704,6 +11309,9 @@
       <c r="G10" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
@@ -9729,6 +11337,9 @@
       <c r="G11" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
@@ -9754,6 +11365,9 @@
       <c r="G12" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
@@ -9779,6 +11393,9 @@
       <c r="G13" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
@@ -9804,6 +11421,9 @@
       <c r="G14" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
@@ -9829,6 +11449,9 @@
       <c r="G15" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H15" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
@@ -9854,6 +11477,9 @@
       <c r="G16" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
@@ -9879,6 +11505,9 @@
       <c r="G17" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H17" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
@@ -9904,6 +11533,9 @@
       <c r="G18" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H18" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
@@ -9929,6 +11561,9 @@
       <c r="G19" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="H19" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
@@ -9954,6 +11589,9 @@
       <c r="G20" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H20" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
@@ -9979,6 +11617,9 @@
       <c r="G21" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H21" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
@@ -10004,6 +11645,9 @@
       <c r="G22" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H22" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
@@ -10029,6 +11673,9 @@
       <c r="G23" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H23" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
@@ -10054,6 +11701,9 @@
       <c r="G24" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H24" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
@@ -10079,6 +11729,9 @@
       <c r="G25" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H25" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
@@ -10104,6 +11757,9 @@
       <c r="G26" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="H26" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
@@ -10129,6 +11785,9 @@
       <c r="G27" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H27" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
@@ -10154,6 +11813,9 @@
       <c r="G28" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H28" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
@@ -10179,6 +11841,9 @@
       <c r="G29" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="H29" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
@@ -10204,6 +11869,9 @@
       <c r="G30" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H30" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
@@ -10229,6 +11897,9 @@
       <c r="G31" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H31" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
@@ -10254,6 +11925,9 @@
       <c r="G32" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H32" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
@@ -10279,6 +11953,9 @@
       <c r="G33" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H33" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
@@ -10304,6 +11981,9 @@
       <c r="G34" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H34" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
@@ -10329,6 +12009,9 @@
       <c r="G35" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H35" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
@@ -10354,6 +12037,9 @@
       <c r="G36" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="H36" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
@@ -10379,6 +12065,9 @@
       <c r="G37" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H37" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
@@ -10404,6 +12093,9 @@
       <c r="G38" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H38" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
@@ -10429,6 +12121,9 @@
       <c r="G39" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H39" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
@@ -10454,6 +12149,9 @@
       <c r="G40" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H40" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
@@ -10479,6 +12177,9 @@
       <c r="G41" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H41" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
@@ -10504,6 +12205,9 @@
       <c r="G42" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H42" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
@@ -10529,6 +12233,9 @@
       <c r="G43" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="H43" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
@@ -10554,6 +12261,9 @@
       <c r="G44" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H44" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
@@ -10579,6 +12289,9 @@
       <c r="G45" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H45" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
@@ -10604,6 +12317,9 @@
       <c r="G46" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H46" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
@@ -10629,6 +12345,9 @@
       <c r="G47" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H47" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
@@ -10654,6 +12373,9 @@
       <c r="G48" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H48" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
@@ -10679,6 +12401,9 @@
       <c r="G49" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="H49" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
@@ -10704,6 +12429,9 @@
       <c r="G50" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H50" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
@@ -10729,6 +12457,9 @@
       <c r="G51" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H51" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
@@ -10754,6 +12485,9 @@
       <c r="G52" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="H52" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
@@ -10779,6 +12513,9 @@
       <c r="G53" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H53" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
@@ -10804,6 +12541,9 @@
       <c r="G54" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H54" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
@@ -10829,6 +12569,9 @@
       <c r="G55" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H55" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
@@ -10854,6 +12597,9 @@
       <c r="G56" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H56" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
@@ -10877,6 +12623,9 @@
         <v>1</v>
       </c>
       <c r="G57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10885,13 +12634,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10935,6 +12684,11 @@
           <t>Session 6</t>
         </is>
       </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Session 7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -10960,6 +12714,9 @@
       <c r="G2" t="n">
         <v>0.8928571428571429</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.7857142857142857</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -10985,6 +12742,9 @@
       <c r="G3" t="n">
         <v>0.6071428571428571</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.6428571428571429</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -11010,6 +12770,9 @@
       <c r="G4" t="n">
         <v>0.7142857142857143</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.8928571428571429</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -11034,6 +12797,9 @@
       </c>
       <c r="G5" t="n">
         <v>0.5714285714285714</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8571428571428571</v>
       </c>
     </row>
   </sheetData>
@@ -11041,7 +12807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
